--- a/config.xlsx
+++ b/config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>key</t>
   </si>
@@ -118,19 +118,13 @@
     <t>File_path</t>
   </si>
   <si>
-    <t>C:\Users\CBT\Desktop\richard\Files</t>
+    <t>csv</t>
   </si>
   <si>
     <t>source_path</t>
   </si>
   <si>
-    <t>C:\Users\CBT\Desktop\richard\csv</t>
-  </si>
-  <si>
     <t>replace_string</t>
-  </si>
-  <si>
-    <t>csv</t>
   </si>
   <si>
     <t>replace_with</t>
@@ -1317,7 +1311,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1477,23 +1471,23 @@
         <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>key</t>
   </si>
@@ -118,13 +118,16 @@
     <t>File_path</t>
   </si>
   <si>
+    <t>/mnt/pythonFiles/csv</t>
+  </si>
+  <si>
+    <t>source_path</t>
+  </si>
+  <si>
+    <t>replace_string</t>
+  </si>
+  <si>
     <t>csv</t>
-  </si>
-  <si>
-    <t>source_path</t>
-  </si>
-  <si>
-    <t>replace_string</t>
   </si>
   <si>
     <t>replace_with</t>
@@ -1311,7 +1314,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1479,15 +1482,15 @@
         <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>key</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>source_path</t>
+  </si>
+  <si>
+    <t>/mnt/pythonFiles/cdms_inputs_test/csv</t>
   </si>
   <si>
     <t>replace_string</t>
@@ -1314,7 +1317,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1474,23 +1477,23 @@
         <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>key</t>
   </si>
@@ -52,25 +52,25 @@
     <t>customer_id</t>
   </si>
   <si>
-    <t>CustomerNumber</t>
+    <t>CustomerIDNo</t>
   </si>
   <si>
     <t>hash1_columns</t>
   </si>
   <si>
-    <t>CustomerFirstName,CustomerLastName,CustomerBirthDate</t>
+    <t>FirstName,LastName,BirthDate</t>
   </si>
   <si>
     <t>hash2_columns</t>
   </si>
   <si>
-    <t>CustomerFirstName,CustomerLastName,CustomerBirthDate,CustomerAddress1</t>
+    <t>FirstName,LastName,BirthDate,PresentUnit- Flr/Bldg/House No. and Street Name</t>
   </si>
   <si>
     <t>columns_present</t>
   </si>
   <si>
-    <t>CustomerNumber,CustomerAddress1,CustomerAddress2,CustomerAddress3,CustomerAddress4,IsCurrent,ResidenceType,IdentificationNumber,IssueDate,ExpiryDate_x,Remarks_x,IssuingAuthority,IssuingCountry,IdentificationType,CustomerFirstName,CustomerMiddleName,CustomerLastName,CustomerType,Gender,CustomerBirthDate,BirthPlace,FatherName,MotherName,CivilStatus,Nationality,IsMinor,Narrative,FinancialStatus,IsPEP,Source,Thumbnail,isPayroll,BlackListed,isEmployee,SourceOfFund,Delinquent,MonthlyIncome,Occupation,DomicileCountry,CreatedDate_x,UpdatedDate,IndustryType,EmploymentStatus,isBankEmployee,Positions,NameOfEmployer,EmployerContract,IsCurrentEmployee,RESPHONE,OFFPHONE,MOBPHONE,EMAIL,BranchCode,CompanyAddress,CardType,CardNo,IssuingBranch,IssuedOn,ExpiryDate_y,Status,Remarks_y,CreatedDate_y</t>
+    <t>CustomerNumber,CustomerAddress1,CustomerAddress2,CustomerAddress3,CustomerAddress4,IsCurrent,ResidenceType,IdentificationNumber,IssueDate,ExpiryDate_x,Remarks_x,IssuingAuthority,IssuingCountry,IdentificationType,CustomerFirstName,CustomerMiddleName,CustomerLastName,CustomerType,Gender,BirthDate,BirthPlace,FatherName,MotherName,CivilStatus,Nationality,IsMinor,Narrative,FinancialStatus,IsPEP,Source,Thumbnail,isPayroll,BlackListed,isEmployee,SourceOfFund,Delinquent,MonthlyIncome,Occupation,DomicileCountry,CreatedDate_x,UpdatedDate,IndustryType,EmploymentStatus,isBankEmployee,Positions,NameOfEmployer,EmployerContract,IsCurrentEmployee,RESPHONE,OFFPHONE,MOBPHONE,EMAIL,BranchCode,CompanyAddress,CardType,CardNo,IssuingBranch,IssuedOn,ExpiryDate_y,Status,Remarks_y,CreatedDate_y</t>
   </si>
   <si>
     <t>columns_to_be_changed</t>
@@ -79,7 +79,7 @@
     <t>output_columns</t>
   </si>
   <si>
-    <t>CustomerNumber,CustomerAddress1,CustomerAddress2,CustomerAddress3,CustomerAddress4,IsCurrent,ResidenceType,IdentificationNumber,IssueDate,ExpiryDate_x,Remarks_x,IssuingAuthority,IssuingCountry,IdentificationType,CustomerFirstName,CustomerMiddleName,CustomerLastName,CustomerType,Gender,CustomerBirthDate,BirthPlace,FatherName,MotherName,CivilStatus,Nationality,IsMinor,Narrative,FinancialStatus,IsPEP,Source,Thumbnail,isPayroll,BlackListed,isEmployee,SourceOfFund,Delinquent,MonthlyIncome,Occupation,DomicileCountry,CreatedDate_x,UpdatedDate,IndustryType,EmploymentStatus,isBankEmployee,Positions,NameOfEmployer,EmployerContract,IsCurrentEmployee,RESPHONE,OFFPHONE,MOBPHONE,EMAIL,BranchCode,CompanyAddress,CardType,CardNo,IssuingBranch,IssuedOn,ExpiryDate_y,Status,Remarks_y,CreatedDate_y,hash1,hash2</t>
+    <t>CustomerNumber,CustomerAddress1,CustomerAddress2,CustomerAddress3,CustomerAddress4,IsCurrent,ResidenceType,IdentificationNumber,IssueDate,ExpiryDate_x,Remarks_x,IssuingAuthority,IssuingCountry,IdentificationType,CustomerFirstName,CustomerMiddleName,CustomerLastName,CustomerType,Gender,BirthDate,BirthPlace,FatherName,MotherName,CivilStatus,Nationality,IsMinor,Narrative,FinancialStatus,IsPEP,Source,Thumbnail,isPayroll,BlackListed,isEmployee,SourceOfFund,Delinquent,MonthlyIncome,Occupation,DomicileCountry,CreatedDate_x,UpdatedDate,IndustryType,EmploymentStatus,isBankEmployee,Positions,NameOfEmployer,EmployerContract,IsCurrentEmployee,RESPHONE,OFFPHONE,MOBPHONE,EMAIL,BranchCode,CompanyAddress,CardType,CardNo,IssuingBranch,IssuedOn,ExpiryDate_y,Status,Remarks_y,CreatedDate_y,hash1,hash2</t>
   </si>
   <si>
     <t>Duplication</t>
@@ -94,25 +94,19 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>CustomerFirstName</t>
-  </si>
-  <si>
     <t>LastName</t>
   </si>
   <si>
-    <t>CustomerLastName</t>
-  </si>
-  <si>
     <t>CustomerAddress</t>
   </si>
   <si>
-    <t>CustomerAddress1</t>
+    <t>PresentUnit- Flr/Bldg/House No. and Street Name</t>
   </si>
   <si>
     <t>CustomerDOB</t>
   </si>
   <si>
-    <t>CustomerBirthDate</t>
+    <t>BirthDate</t>
   </si>
   <si>
     <t>File_path</t>
@@ -777,10 +771,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1316,8 +1310,8 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1375,7 +1369,7 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1428,7 +1422,7 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1436,64 +1430,64 @@
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>key</t>
   </si>
@@ -118,19 +118,16 @@
     <t>source_path</t>
   </si>
   <si>
-    <t>/mnt/pythonFiles/cdms_inputs_test/csv</t>
+    <t>/STFS0029M/CDMS</t>
   </si>
   <si>
     <t>replace_string</t>
   </si>
   <si>
-    <t>csv</t>
-  </si>
-  <si>
     <t>replace_with</t>
   </si>
   <si>
-    <t>processing</t>
+    <t>migration</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1308,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1479,15 +1476,15 @@
         <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
         <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -55,13 +55,13 @@
     <t>CustomerIDNo</t>
   </si>
   <si>
-    <t>hash1_columns</t>
+    <t>HASH_1_columns</t>
   </si>
   <si>
     <t>FirstName,LastName,BirthDate</t>
   </si>
   <si>
-    <t>hash2_columns</t>
+    <t>HASH_2_columns</t>
   </si>
   <si>
     <t>FirstName,LastName,BirthDate,PresentUnit- Flr/Bldg/House No. and Street Name</t>
@@ -79,7 +79,7 @@
     <t>output_columns</t>
   </si>
   <si>
-    <t>CustomerNumber,CustomerAddress1,CustomerAddress2,CustomerAddress3,CustomerAddress4,IsCurrent,ResidenceType,IdentificationNumber,IssueDate,ExpiryDate_x,Remarks_x,IssuingAuthority,IssuingCountry,IdentificationType,CustomerFirstName,CustomerMiddleName,CustomerLastName,CustomerType,Gender,BirthDate,BirthPlace,FatherName,MotherName,CivilStatus,Nationality,IsMinor,Narrative,FinancialStatus,IsPEP,Source,Thumbnail,isPayroll,BlackListed,isEmployee,SourceOfFund,Delinquent,MonthlyIncome,Occupation,DomicileCountry,CreatedDate_x,UpdatedDate,IndustryType,EmploymentStatus,isBankEmployee,Positions,NameOfEmployer,EmployerContract,IsCurrentEmployee,RESPHONE,OFFPHONE,MOBPHONE,EMAIL,BranchCode,CompanyAddress,CardType,CardNo,IssuingBranch,IssuedOn,ExpiryDate_y,Status,Remarks_y,CreatedDate_y,hash1,hash2</t>
+    <t>CustomerNumber,CustomerAddress1,CustomerAddress2,CustomerAddress3,CustomerAddress4,IsCurrent,ResidenceType,IdentificationNumber,IssueDate,ExpiryDate_x,Remarks_x,IssuingAuthority,IssuingCountry,IdentificationType,CustomerFirstName,CustomerMiddleName,CustomerLastName,CustomerType,Gender,BirthDate,BirthPlace,FatherName,MotherName,CivilStatus,Nationality,IsMinor,Narrative,FinancialStatus,IsPEP,Source,Thumbnail,isPayroll,BlackListed,isEmployee,SourceOfFund,Delinquent,MonthlyIncome,Occupation,DomicileCountry,CreatedDate_x,UpdatedDate,IndustryType,EmploymentStatus,isBankEmployee,Positions,NameOfEmployer,EmployerContract,IsCurrentEmployee,RESPHONE,OFFPHONE,MOBPHONE,EMAIL,BranchCode,CompanyAddress,CardType,CardNo,IssuingBranch,IssuedOn,ExpiryDate_y,Status,Remarks_y,CreatedDate_y,HASH_1,HASH_2</t>
   </si>
   <si>
     <t>Duplication</t>
@@ -1307,8 +1307,8 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>key</t>
   </si>
@@ -52,19 +52,31 @@
     <t>customer_id</t>
   </si>
   <si>
-    <t>CustomerIDNo</t>
+    <t xml:space="preserve">CUSTOMER_ID </t>
   </si>
   <si>
     <t>HASH_1_columns</t>
   </si>
   <si>
-    <t>FirstName,LastName,BirthDate</t>
+    <t>FIRSTNAME,LASTNAME,DATEOFBIRTH</t>
+  </si>
+  <si>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LASTNAME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATEOFBIRTH </t>
   </si>
   <si>
     <t>HASH_2_columns</t>
   </si>
   <si>
-    <t>FirstName,LastName,BirthDate,PresentUnit- Flr/Bldg/House No. and Street Name</t>
+    <t>FIRSTNAME,LASTNAME,DATEOFBIRTH,PPG_HOMEADD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPG_HOMEADD </t>
   </si>
   <si>
     <t>columns_present</t>
@@ -764,7 +776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,6 +784,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,13 +1320,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="18.2857142857143" customWidth="1"/>
@@ -1370,121 +1385,133 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>34</v>
+      <c r="A31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -776,7 +776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,9 +784,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1322,8 +1319,8 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1454,7 +1451,7 @@
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1462,7 +1459,7 @@
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1470,7 +1467,7 @@
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1478,7 +1475,7 @@
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1491,18 +1488,18 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -52,7 +52,7 @@
     <t>customer_id</t>
   </si>
   <si>
-    <t xml:space="preserve">CUSTOMER_ID </t>
+    <t>CUSTOMER_ID</t>
   </si>
   <si>
     <t>HASH_1_columns</t>
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
